--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_59_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_59_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.3521035065506046, 3.7825182228914906]</t>
+          <t>[3.346632705579509, 3.787989023862586]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3836264557040603, 0.6397142861546263]</t>
+          <t>[0.38359999499070874, 0.6397407468679779]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.930646836318829e-10</v>
+        <v>2.947000421471557e-10</v>
       </c>
       <c r="V2" t="n">
-        <v>2.930646836318829e-10</v>
+        <v>2.947000421471557e-10</v>
       </c>
       <c r="W2" t="n">
         <v>12.74826826826854</v>
